--- a/Verification/testcase.xlsx
+++ b/Verification/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACH KHOA\Internship\pipeline-processor\Verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FB39CF-B905-43BE-89A8-F3A755CD455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B3AD81-2EFD-42B4-8374-114B7A0EB597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9D61DBD-A358-4987-AB2F-BAB1F33BB603}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">and R5, R2, R6 </t>
   </si>
   <si>
-    <t>R5 = R2 &amp; R6 = 7</t>
-  </si>
-  <si>
     <t>sw R4, 4(R0)</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>R3 =0</t>
   </si>
   <si>
-    <t>beq R3, R0 around</t>
-  </si>
-  <si>
     <t>should be taken</t>
   </si>
   <si>
@@ -183,18 +177,12 @@
     <t xml:space="preserve">nor R4, R6, R8 </t>
   </si>
   <si>
-    <t xml:space="preserve">R4 = ~(R6 | R8) = 16 </t>
-  </si>
-  <si>
     <t>sub R7, R7, R2</t>
   </si>
   <si>
     <t xml:space="preserve">addi R4, R2, 2 </t>
   </si>
   <si>
-    <t>R4 = R2 + 2 = 18</t>
-  </si>
-  <si>
     <t>0x00</t>
   </si>
   <si>
@@ -339,10 +327,49 @@
     <t>0x11450030</t>
   </si>
   <si>
-    <t>0x10600008</t>
-  </si>
-  <si>
     <t>0x14270022</t>
+  </si>
+  <si>
+    <t>R4 = R2 + 2 = 9</t>
+  </si>
+  <si>
+    <t>begin:</t>
+  </si>
+  <si>
+    <t>R5 = R2 &amp; R6 = 5</t>
+  </si>
+  <si>
+    <t>0x10600002</t>
+  </si>
+  <si>
+    <t>beq R3, R0 around (Hazard)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Data Hazard (ForwardingA_exe)</t>
+  </si>
+  <si>
+    <t>Data Hazard (ForwardingB_exe)</t>
+  </si>
+  <si>
+    <t>Data Hazard (ForwardingA_decode)</t>
+  </si>
+  <si>
+    <t>Control Hazard</t>
+  </si>
+  <si>
+    <t>R4 = ~(R6 | R8) = -48</t>
+  </si>
+  <si>
+    <t>Data + Control Hazard (ForwardingA_decode + 3Stall)</t>
+  </si>
+  <si>
+    <t>Should be taken</t>
+  </si>
+  <si>
+    <t>Data + Control Hazard (ForwardingA_decode + 1Stall)</t>
   </si>
 </sst>
 </file>
@@ -706,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79088C5-5035-4716-8775-EE2719FBB8CC}">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,9 +746,15 @@
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="8" max="8" width="46.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,8 +770,14 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -746,13 +785,13 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -760,13 +799,13 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -774,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -788,13 +827,13 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -802,13 +841,13 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>16</v>
       </c>
@@ -816,13 +855,13 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -830,153 +869,165 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
         <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -984,118 +1035,136 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.3">
       <c r="F27" s="2"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
